--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -1,26 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>test id 1</t>
+  </si>
+  <si>
+    <t>preconditions</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>добавления мероприятия в корзину</t>
+  </si>
+  <si>
+    <t>1. нажать "купить билет" на первом мероприятии</t>
+  </si>
+  <si>
+    <t>2. выбрать ближайшую дату</t>
+  </si>
+  <si>
+    <t>3.  выбрать ближайшее время</t>
+  </si>
+  <si>
+    <t>4. добавить один взрослый билет для стран ЕАЭС</t>
+  </si>
+  <si>
+    <t>5. нажать кнопку " к заказу"</t>
+  </si>
+  <si>
+    <t>1. открывается страница выбора даты и билета на мероприятие</t>
+  </si>
+  <si>
+    <t>2. появляется возможное время посещения на выбранную дату</t>
+  </si>
+  <si>
+    <t>3. появляется поле с выбором типа билета</t>
+  </si>
+  <si>
+    <t>4. появляется панель с переходом к заказу</t>
+  </si>
+  <si>
+    <t>5. открывается страница корзины с выбранным билетом</t>
+  </si>
+  <si>
+    <t>test id 2</t>
+  </si>
+  <si>
+    <t>переход к интернет-магазину</t>
+  </si>
+  <si>
+    <t>1. нажать "интернет-магазин"</t>
+  </si>
+  <si>
+    <t>1. открывается страница интернет-магазина</t>
+  </si>
+  <si>
+    <t>test id 3</t>
+  </si>
+  <si>
+    <t>1. навести на "Третьяковка онлайн"</t>
+  </si>
+  <si>
+    <t>2. нажать на YouTube</t>
+  </si>
+  <si>
+    <t>переход на youtube канал Третьяковской галереи</t>
+  </si>
+  <si>
+    <t>1. открывается панель с онлайн ресурсами</t>
+  </si>
+  <si>
+    <t>2. открывается YouTube канал "Третьяковская галерея"</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>страница сайта https://www.tretyakovgallery.ru/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,15 +140,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,20 +543,265 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="57.6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>